--- a/results/linear_avg.xlsx
+++ b/results/linear_avg.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\algorytmy_struktury_danych\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\algorytmy_struktury_danych\search\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDEFDB47-1DC8-4108-B39B-2835688C4357}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFDFB73-EC2F-4756-8FB7-358277DBE6D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId2"/>
+    <pivotCache cacheId="0" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -628,6 +628,41 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Wyszukiwanie</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> linowe - średni przypadek</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -662,6 +697,9 @@
       <c:pivotFmt>
         <c:idx val="0"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3842,6 +3880,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>czas wyszukiwania</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3907,6 +4000,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Wielkość tablicy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3950,37 +4098,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -5999,7 +6116,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Tabela przestawna13" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Tabela przestawna13" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G1:H171" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -7014,7 +7131,7 @@
   <dimension ref="A1:H171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K88"/>
+      <selection activeCell="A170" sqref="A170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
